--- a/stress_strain_excel/stress_strain_20210702.xlsx
+++ b/stress_strain_excel/stress_strain_20210702.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/stress_strain_excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693D8184-7987-8741-AC8C-BC74F139F4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>TIME</t>
   </si>
@@ -27,16 +33,20 @@
   <si>
     <t>stress</t>
   </si>
+  <si>
+    <t>CFRP１本の時</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -44,8 +54,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -57,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -80,26 +97,1676 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stress</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333344E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6666666666666669E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3333333333333338E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1666666666666669E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8333333333333338E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6666666666666675E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3333333333333339E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1666666666666676E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0833333333333339E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.166666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3333333333333339E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5833333333333339E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.666666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8333333333333339E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.916666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0833333333333329E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.166666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.333333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4166666666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5833333333333329E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.666666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.833333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9166666666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0833333333333329E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.166666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.2500000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.333333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.4166666666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.5833333333333329E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.666666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.833333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9166666666666664E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.0833333333333338E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.1666666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.333333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.4166666666666677E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.5000000000000014E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.5833333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.6666666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.8333333333333336E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.9166666666666673E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.0833333333333329E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.1666666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.333333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.4166666666666677E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.5000000000000014E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.5833333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.6666666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.8333333333333336E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.9166666666666673E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.083333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.1666666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.333333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.4166666666666677E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.5833333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.6666666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.7500000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.8333333333333336E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.9166666666666673E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.083333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.1666666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.3333333333333341E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.4166666666666678E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.5833333333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.6666666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.7500000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.8333333333333328E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.9166666666666673E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.083333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.1666666666666676E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.3333333333333332E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.64224691358024688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99521604938271602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4928251028806581</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.990434156378601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4880452674897122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.985658436213992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4832510288065839</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9808641975308641</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4784773662551443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9760905349794244</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.4736831275720164</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9712962962962957</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4689094650205758</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9665226337448551</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.464115226337448</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.9617283950617281</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.4593415637860083</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.9569547325102885</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.4545679012345687</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9521604938271597</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.44977366255144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.94738683127572</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.445</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.94259259259259</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.44020576131687</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.93781893004115</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.43543209876543</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.933024691358019</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.4306378600823</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.92825102880659</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.42586419753086</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.92345679012346</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.421069958847731</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.91868312757202</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.416296296296299</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.913909465020581</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.41150205761317</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.909115226337448</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.40672839506173</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.904341563786009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20.401934156378601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.899588477366251</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21.397119341563791</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21.89485596707819</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22.392386831275719</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22.889917695473251</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23.387654320987661</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23.885185185185179</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24.382716049382719</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24.880452674897121</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.37798353909465</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25.875720164609049</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26.373251028806589</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26.870781893004111</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27.36851851851852</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27.866049382716049</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28.363580246913578</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28.861316872427981</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29.35884773662551</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29.85658436213992</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30.354115226337449</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30.851646090534981</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31.34938271604938</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31.846913580246909</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32.344444444444441</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32.842181069958848</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33.339711934156377</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33.837448559670783</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34.334979423868312</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34.832510288065841</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35.330246913580247</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35.827777777777783</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36.325308641975312</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>36.823045267489711</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37.32057613168724</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>37.818312757201653</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38.315843621399168</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>38.813374485596697</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39.31111111111111</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>39.808641975308639</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40.306378600823052</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40.803909465020567</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41.301440329218103</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41.799176954732509</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42.296707818930038</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42.794238683127567</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43.291975308641973</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43.789506172839509</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44.287242798353908</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44.784773662551437</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45.282304526748973</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45.780041152263372</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46.277572016460908</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>46.775102880658437</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>47.272839506172843</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>47.770370370370372</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48.268106995884771</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>48.765637860082307</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>49.263168724279844</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>49.760905349794243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF30-474D-9E23-B449880C95FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="116133792"/>
+        <c:axId val="116135440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="116133792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116135440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116135440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116133792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B53759E-D2E5-364F-800B-C4E842B969E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -141,7 +1808,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,9 +1840,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,6 +1892,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,14 +2085,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,22 +2107,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0.01</v>
       </c>
       <c r="B2">
-        <v>31.2132</v>
+        <v>31.213200000000001</v>
       </c>
       <c r="C2">
-        <v>8.333333333333334E-05</v>
+        <v>8.3333333333333344E-5</v>
       </c>
       <c r="D2">
-        <v>0.6422469135802469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.64224691358024688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>0.02</v>
       </c>
@@ -425,41 +2133,41 @@
         <v>48.3675</v>
       </c>
       <c r="C3">
-        <v>0.0001666666666666667</v>
+        <v>1.6666666666666669E-4</v>
       </c>
       <c r="D3">
-        <v>0.995216049382716</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.99521604938271602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>0.03</v>
       </c>
       <c r="B4">
-        <v>72.5513</v>
+        <v>72.551299999999998</v>
       </c>
       <c r="C4">
-        <v>0.00025</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D4">
-        <v>1.492825102880658</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>1.4928251028806581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>0.04</v>
       </c>
       <c r="B5">
-        <v>96.7351</v>
+        <v>96.735100000000003</v>
       </c>
       <c r="C5">
-        <v>0.0003333333333333334</v>
+        <v>3.3333333333333338E-4</v>
       </c>
       <c r="D5">
         <v>1.990434156378601</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>0.05</v>
       </c>
@@ -467,41 +2175,41 @@
         <v>120.919</v>
       </c>
       <c r="C6">
-        <v>0.0004166666666666667</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="D6">
-        <v>2.488045267489712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>2.4880452674897122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>0.06</v>
       </c>
       <c r="B7">
-        <v>145.103</v>
+        <v>145.10300000000001</v>
       </c>
       <c r="C7">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D7">
         <v>2.985658436213992</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B8">
         <v>169.286</v>
       </c>
       <c r="C8">
-        <v>0.0005833333333333334</v>
+        <v>5.8333333333333338E-4</v>
       </c>
       <c r="D8">
-        <v>3.483251028806584</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>3.4832510288065839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>0.08</v>
       </c>
@@ -509,13 +2217,13 @@
         <v>193.47</v>
       </c>
       <c r="C9">
-        <v>0.0006666666666666668</v>
+        <v>6.6666666666666675E-4</v>
       </c>
       <c r="D9">
-        <v>3.980864197530864</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>3.9808641975308641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0.09</v>
       </c>
@@ -523,91 +2231,91 @@
         <v>217.654</v>
       </c>
       <c r="C10">
-        <v>0.00075</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="D10">
-        <v>4.478477366255144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>4.4784773662551443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>0.1</v>
       </c>
       <c r="B11">
-        <v>241.838</v>
+        <v>241.83799999999999</v>
       </c>
       <c r="C11">
-        <v>0.0008333333333333334</v>
+        <v>8.3333333333333339E-4</v>
       </c>
       <c r="D11">
-        <v>4.976090534979424</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>4.9760905349794244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>0.11</v>
       </c>
       <c r="B12">
-        <v>266.021</v>
+        <v>266.02100000000002</v>
       </c>
       <c r="C12">
-        <v>0.0009166666666666668</v>
+        <v>9.1666666666666676E-4</v>
       </c>
       <c r="D12">
-        <v>5.473683127572016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>5.4736831275720164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>0.12</v>
       </c>
       <c r="B13">
-        <v>290.205</v>
+        <v>290.20499999999998</v>
       </c>
       <c r="C13">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D13">
-        <v>5.971296296296296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>5.9712962962962957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>0.13</v>
       </c>
       <c r="B14">
-        <v>314.389</v>
+        <v>314.38900000000001</v>
       </c>
       <c r="C14">
-        <v>0.001083333333333334</v>
+        <v>1.0833333333333339E-3</v>
       </c>
       <c r="D14">
-        <v>6.468909465020576</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>6.4689094650205758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="B15">
-        <v>338.573</v>
+        <v>338.57299999999998</v>
       </c>
       <c r="C15">
-        <v>0.001166666666666667</v>
+        <v>1.166666666666667E-3</v>
       </c>
       <c r="D15">
-        <v>6.966522633744855</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>6.9665226337448551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>0.15</v>
       </c>
       <c r="B16">
-        <v>362.756</v>
+        <v>362.75599999999997</v>
       </c>
       <c r="C16">
-        <v>0.00125</v>
+        <v>1.25E-3</v>
       </c>
       <c r="D16">
         <v>7.464115226337448</v>
@@ -621,10 +2329,10 @@
         <v>386.94</v>
       </c>
       <c r="C17">
-        <v>0.001333333333333334</v>
+        <v>1.3333333333333339E-3</v>
       </c>
       <c r="D17">
-        <v>7.961728395061728</v>
+        <v>7.9617283950617281</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +2340,13 @@
         <v>0.17</v>
       </c>
       <c r="B18">
-        <v>411.124</v>
+        <v>411.12400000000002</v>
       </c>
       <c r="C18">
-        <v>0.001416666666666667</v>
+        <v>1.416666666666667E-3</v>
       </c>
       <c r="D18">
-        <v>8.459341563786008</v>
+        <v>8.4593415637860083</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +2354,13 @@
         <v>0.18</v>
       </c>
       <c r="B19">
-        <v>435.308</v>
+        <v>435.30799999999999</v>
       </c>
       <c r="C19">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="D19">
-        <v>8.956954732510289</v>
+        <v>8.9569547325102885</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +2368,13 @@
         <v>0.19</v>
       </c>
       <c r="B20">
-        <v>459.492</v>
+        <v>459.49200000000002</v>
       </c>
       <c r="C20">
-        <v>0.001583333333333334</v>
+        <v>1.5833333333333339E-3</v>
       </c>
       <c r="D20">
-        <v>9.454567901234569</v>
+        <v>9.4545679012345687</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +2382,13 @@
         <v>0.2</v>
       </c>
       <c r="B21">
-        <v>483.675</v>
+        <v>483.67500000000001</v>
       </c>
       <c r="C21">
-        <v>0.001666666666666667</v>
+        <v>1.666666666666667E-3</v>
       </c>
       <c r="D21">
-        <v>9.95216049382716</v>
+        <v>9.9521604938271597</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,10 +2396,10 @@
         <v>0.21</v>
       </c>
       <c r="B22">
-        <v>507.859</v>
+        <v>507.85899999999998</v>
       </c>
       <c r="C22">
-        <v>0.00175</v>
+        <v>1.75E-3</v>
       </c>
       <c r="D22">
         <v>10.44977366255144</v>
@@ -702,10 +2410,10 @@
         <v>0.22</v>
       </c>
       <c r="B23">
-        <v>532.043</v>
+        <v>532.04300000000001</v>
       </c>
       <c r="C23">
-        <v>0.001833333333333334</v>
+        <v>1.8333333333333339E-3</v>
       </c>
       <c r="D23">
         <v>10.94738683127572</v>
@@ -716,10 +2424,10 @@
         <v>0.23</v>
       </c>
       <c r="B24">
-        <v>556.227</v>
+        <v>556.22699999999998</v>
       </c>
       <c r="C24">
-        <v>0.001916666666666667</v>
+        <v>1.916666666666667E-3</v>
       </c>
       <c r="D24">
         <v>11.445</v>
@@ -733,7 +2441,7 @@
         <v>580.41</v>
       </c>
       <c r="C25">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="D25">
         <v>11.94259259259259</v>
@@ -744,10 +2452,10 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>604.5940000000001</v>
+        <v>604.59400000000005</v>
       </c>
       <c r="C26">
-        <v>0.002083333333333333</v>
+        <v>2.0833333333333329E-3</v>
       </c>
       <c r="D26">
         <v>12.44020576131687</v>
@@ -758,10 +2466,10 @@
         <v>0.26</v>
       </c>
       <c r="B27">
-        <v>628.778</v>
+        <v>628.77800000000002</v>
       </c>
       <c r="C27">
-        <v>0.002166666666666667</v>
+        <v>2.166666666666667E-3</v>
       </c>
       <c r="D27">
         <v>12.93781893004115</v>
@@ -772,10 +2480,10 @@
         <v>0.27</v>
       </c>
       <c r="B28">
-        <v>652.962</v>
+        <v>652.96199999999999</v>
       </c>
       <c r="C28">
-        <v>0.00225</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="D28">
         <v>13.43543209876543</v>
@@ -783,27 +2491,27 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B29">
-        <v>677.145</v>
+        <v>677.14499999999998</v>
       </c>
       <c r="C29">
-        <v>0.002333333333333334</v>
+        <v>2.333333333333334E-3</v>
       </c>
       <c r="D29">
-        <v>13.93302469135802</v>
+        <v>13.933024691358019</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="B30">
-        <v>701.329</v>
+        <v>701.32899999999995</v>
       </c>
       <c r="C30">
-        <v>0.002416666666666667</v>
+        <v>2.4166666666666668E-3</v>
       </c>
       <c r="D30">
         <v>14.4306378600823</v>
@@ -814,10 +2522,10 @@
         <v>0.3</v>
       </c>
       <c r="B31">
-        <v>725.513</v>
+        <v>725.51300000000003</v>
       </c>
       <c r="C31">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="D31">
         <v>14.92825102880659</v>
@@ -831,7 +2539,7 @@
         <v>749.697</v>
       </c>
       <c r="C32">
-        <v>0.002583333333333333</v>
+        <v>2.5833333333333329E-3</v>
       </c>
       <c r="D32">
         <v>15.42586419753086</v>
@@ -845,7 +2553,7 @@
         <v>773.88</v>
       </c>
       <c r="C33">
-        <v>0.002666666666666667</v>
+        <v>2.666666666666667E-3</v>
       </c>
       <c r="D33">
         <v>15.92345679012346</v>
@@ -856,13 +2564,13 @@
         <v>0.33</v>
       </c>
       <c r="B34">
-        <v>798.064</v>
+        <v>798.06399999999996</v>
       </c>
       <c r="C34">
-        <v>0.00275</v>
+        <v>2.7499999999999998E-3</v>
       </c>
       <c r="D34">
-        <v>16.42106995884773</v>
+        <v>16.421069958847731</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,10 +2578,10 @@
         <v>0.34</v>
       </c>
       <c r="B35">
-        <v>822.248</v>
+        <v>822.24800000000005</v>
       </c>
       <c r="C35">
-        <v>0.002833333333333334</v>
+        <v>2.833333333333334E-3</v>
       </c>
       <c r="D35">
         <v>16.91868312757202</v>
@@ -884,13 +2592,13 @@
         <v>0.35</v>
       </c>
       <c r="B36">
-        <v>846.432</v>
+        <v>846.43200000000002</v>
       </c>
       <c r="C36">
-        <v>0.002916666666666667</v>
+        <v>2.9166666666666668E-3</v>
       </c>
       <c r="D36">
-        <v>17.4162962962963</v>
+        <v>17.416296296296299</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +2606,13 @@
         <v>0.36</v>
       </c>
       <c r="B37">
-        <v>870.616</v>
+        <v>870.61599999999999</v>
       </c>
       <c r="C37">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D37">
-        <v>17.91390946502058</v>
+        <v>17.913909465020581</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,10 +2620,10 @@
         <v>0.37</v>
       </c>
       <c r="B38">
-        <v>894.799</v>
+        <v>894.79899999999998</v>
       </c>
       <c r="C38">
-        <v>0.003083333333333333</v>
+        <v>3.0833333333333329E-3</v>
       </c>
       <c r="D38">
         <v>18.41150205761317</v>
@@ -926,13 +2634,13 @@
         <v>0.38</v>
       </c>
       <c r="B39">
-        <v>918.9829999999999</v>
+        <v>918.98299999999995</v>
       </c>
       <c r="C39">
-        <v>0.003166666666666667</v>
+        <v>3.166666666666667E-3</v>
       </c>
       <c r="D39">
-        <v>18.90911522633745</v>
+        <v>18.909115226337448</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,10 +2648,10 @@
         <v>0.39</v>
       </c>
       <c r="B40">
-        <v>943.167</v>
+        <v>943.16700000000003</v>
       </c>
       <c r="C40">
-        <v>0.003250000000000001</v>
+        <v>3.2500000000000012E-3</v>
       </c>
       <c r="D40">
         <v>19.40672839506173</v>
@@ -957,10 +2665,10 @@
         <v>967.351</v>
       </c>
       <c r="C41">
-        <v>0.003333333333333334</v>
+        <v>3.333333333333334E-3</v>
       </c>
       <c r="D41">
-        <v>19.90434156378601</v>
+        <v>19.904341563786009</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +2676,13 @@
         <v>0.41</v>
       </c>
       <c r="B42">
-        <v>991.534</v>
+        <v>991.53399999999999</v>
       </c>
       <c r="C42">
-        <v>0.003416666666666667</v>
+        <v>3.4166666666666668E-3</v>
       </c>
       <c r="D42">
-        <v>20.4019341563786</v>
+        <v>20.401934156378601</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -985,10 +2693,10 @@
         <v>1015.72</v>
       </c>
       <c r="C43">
-        <v>0.0035</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="D43">
-        <v>20.89958847736625</v>
+        <v>20.899588477366251</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +2704,13 @@
         <v>0.43</v>
       </c>
       <c r="B44">
-        <v>1039.9</v>
+        <v>1039.9000000000001</v>
       </c>
       <c r="C44">
-        <v>0.003583333333333333</v>
+        <v>3.5833333333333329E-3</v>
       </c>
       <c r="D44">
-        <v>21.39711934156379</v>
+        <v>21.397119341563791</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,10 +2718,10 @@
         <v>0.44</v>
       </c>
       <c r="B45">
-        <v>1064.09</v>
+        <v>1064.0899999999999</v>
       </c>
       <c r="C45">
-        <v>0.003666666666666667</v>
+        <v>3.666666666666667E-3</v>
       </c>
       <c r="D45">
         <v>21.89485596707819</v>
@@ -1027,10 +2735,10 @@
         <v>1088.27</v>
       </c>
       <c r="C46">
-        <v>0.00375</v>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="D46">
-        <v>22.39238683127572</v>
+        <v>22.392386831275719</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1041,10 +2749,10 @@
         <v>1112.45</v>
       </c>
       <c r="C47">
-        <v>0.003833333333333334</v>
+        <v>3.833333333333334E-3</v>
       </c>
       <c r="D47">
-        <v>22.88991769547325</v>
+        <v>22.889917695473251</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +2760,13 @@
         <v>0.47</v>
       </c>
       <c r="B48">
-        <v>1136.64</v>
+        <v>1136.6400000000001</v>
       </c>
       <c r="C48">
-        <v>0.003916666666666666</v>
+        <v>3.9166666666666664E-3</v>
       </c>
       <c r="D48">
-        <v>23.38765432098766</v>
+        <v>23.387654320987661</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1069,10 +2777,10 @@
         <v>1160.82</v>
       </c>
       <c r="C49">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D49">
-        <v>23.88518518518518</v>
+        <v>23.885185185185179</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1083,10 +2791,10 @@
         <v>1185</v>
       </c>
       <c r="C50">
-        <v>0.004083333333333334</v>
+        <v>4.0833333333333338E-3</v>
       </c>
       <c r="D50">
-        <v>24.38271604938272</v>
+        <v>24.382716049382719</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1097,10 +2805,10 @@
         <v>1209.19</v>
       </c>
       <c r="C51">
-        <v>0.004166666666666667</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="D51">
-        <v>24.88045267489712</v>
+        <v>24.880452674897121</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,10 +2816,10 @@
         <v>0.51</v>
       </c>
       <c r="B52">
-        <v>1233.37</v>
+        <v>1233.3699999999999</v>
       </c>
       <c r="C52">
-        <v>0.00425</v>
+        <v>4.2500000000000003E-3</v>
       </c>
       <c r="D52">
         <v>25.37798353909465</v>
@@ -1125,10 +2833,10 @@
         <v>1257.56</v>
       </c>
       <c r="C53">
-        <v>0.004333333333333334</v>
+        <v>4.333333333333334E-3</v>
       </c>
       <c r="D53">
-        <v>25.87572016460905</v>
+        <v>25.875720164609049</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1139,10 +2847,10 @@
         <v>1281.74</v>
       </c>
       <c r="C54">
-        <v>0.004416666666666668</v>
+        <v>4.4166666666666677E-3</v>
       </c>
       <c r="D54">
-        <v>26.37325102880659</v>
+        <v>26.373251028806589</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1153,21 +2861,21 @@
         <v>1305.92</v>
       </c>
       <c r="C55">
-        <v>0.004500000000000001</v>
+        <v>4.5000000000000014E-3</v>
       </c>
       <c r="D55">
-        <v>26.87078189300411</v>
+        <v>26.870781893004111</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B56">
         <v>1330.11</v>
       </c>
       <c r="C56">
-        <v>0.004583333333333333</v>
+        <v>4.5833333333333334E-3</v>
       </c>
       <c r="D56">
         <v>27.36851851851852</v>
@@ -1175,44 +2883,44 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="B57">
         <v>1354.29</v>
       </c>
       <c r="C57">
-        <v>0.004666666666666667</v>
+        <v>4.6666666666666671E-3</v>
       </c>
       <c r="D57">
-        <v>27.86604938271605</v>
+        <v>27.866049382716049</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="B58">
         <v>1378.47</v>
       </c>
       <c r="C58">
-        <v>0.00475</v>
+        <v>4.7499999999999999E-3</v>
       </c>
       <c r="D58">
-        <v>28.36358024691358</v>
+        <v>28.363580246913578</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="B59">
         <v>1402.66</v>
       </c>
       <c r="C59">
-        <v>0.004833333333333334</v>
+        <v>4.8333333333333336E-3</v>
       </c>
       <c r="D59">
-        <v>28.86131687242798</v>
+        <v>28.861316872427981</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1223,7 +2931,7 @@
         <v>1426.84</v>
       </c>
       <c r="C60">
-        <v>0.004916666666666667</v>
+        <v>4.9166666666666673E-3</v>
       </c>
       <c r="D60">
         <v>29.35884773662551</v>
@@ -1237,7 +2945,7 @@
         <v>1451.03</v>
       </c>
       <c r="C61">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D61">
         <v>29.85658436213992</v>
@@ -1251,10 +2959,10 @@
         <v>1475.21</v>
       </c>
       <c r="C62">
-        <v>0.005083333333333333</v>
+        <v>5.0833333333333329E-3</v>
       </c>
       <c r="D62">
-        <v>30.35411522633745</v>
+        <v>30.354115226337449</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1265,10 +2973,10 @@
         <v>1499.39</v>
       </c>
       <c r="C63">
-        <v>0.005166666666666667</v>
+        <v>5.1666666666666666E-3</v>
       </c>
       <c r="D63">
-        <v>30.85164609053498</v>
+        <v>30.851646090534981</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1279,7 +2987,7 @@
         <v>1523.58</v>
       </c>
       <c r="C64">
-        <v>0.00525</v>
+        <v>5.2500000000000003E-3</v>
       </c>
       <c r="D64">
         <v>31.34938271604938</v>
@@ -1293,10 +3001,10 @@
         <v>1547.76</v>
       </c>
       <c r="C65">
-        <v>0.005333333333333334</v>
+        <v>5.333333333333334E-3</v>
       </c>
       <c r="D65">
-        <v>31.84691358024691</v>
+        <v>31.846913580246909</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1307,10 +3015,10 @@
         <v>1571.94</v>
       </c>
       <c r="C66">
-        <v>0.005416666666666668</v>
+        <v>5.4166666666666677E-3</v>
       </c>
       <c r="D66">
-        <v>32.34444444444444</v>
+        <v>32.344444444444441</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1321,10 +3029,10 @@
         <v>1596.13</v>
       </c>
       <c r="C67">
-        <v>0.005500000000000001</v>
+        <v>5.5000000000000014E-3</v>
       </c>
       <c r="D67">
-        <v>32.84218106995885</v>
+        <v>32.842181069958848</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1335,10 +3043,10 @@
         <v>1620.31</v>
       </c>
       <c r="C68">
-        <v>0.005583333333333333</v>
+        <v>5.5833333333333334E-3</v>
       </c>
       <c r="D68">
-        <v>33.33971193415638</v>
+        <v>33.339711934156377</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1349,24 +3057,24 @@
         <v>1644.5</v>
       </c>
       <c r="C69">
-        <v>0.005666666666666667</v>
+        <v>5.6666666666666671E-3</v>
       </c>
       <c r="D69">
-        <v>33.83744855967078</v>
+        <v>33.837448559670783</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="B70">
         <v>1668.68</v>
       </c>
       <c r="C70">
-        <v>0.00575</v>
+        <v>5.7499999999999999E-3</v>
       </c>
       <c r="D70">
-        <v>34.33497942386831</v>
+        <v>34.334979423868312</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1377,10 +3085,10 @@
         <v>1692.86</v>
       </c>
       <c r="C71">
-        <v>0.005833333333333334</v>
+        <v>5.8333333333333336E-3</v>
       </c>
       <c r="D71">
-        <v>34.83251028806584</v>
+        <v>34.832510288065841</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1391,10 +3099,10 @@
         <v>1717.05</v>
       </c>
       <c r="C72">
-        <v>0.005916666666666667</v>
+        <v>5.9166666666666673E-3</v>
       </c>
       <c r="D72">
-        <v>35.33024691358025</v>
+        <v>35.330246913580247</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1405,10 +3113,10 @@
         <v>1741.23</v>
       </c>
       <c r="C73">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D73">
-        <v>35.82777777777778</v>
+        <v>35.827777777777783</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1419,10 +3127,10 @@
         <v>1765.41</v>
       </c>
       <c r="C74">
-        <v>0.006083333333333333</v>
+        <v>6.083333333333333E-3</v>
       </c>
       <c r="D74">
-        <v>36.32530864197531</v>
+        <v>36.325308641975312</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1433,10 +3141,10 @@
         <v>1789.6</v>
       </c>
       <c r="C75">
-        <v>0.006166666666666667</v>
+        <v>6.1666666666666667E-3</v>
       </c>
       <c r="D75">
-        <v>36.82304526748971</v>
+        <v>36.823045267489711</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1447,7 +3155,7 @@
         <v>1813.78</v>
       </c>
       <c r="C76">
-        <v>0.00625</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="D76">
         <v>37.32057613168724</v>
@@ -1461,10 +3169,10 @@
         <v>1837.97</v>
       </c>
       <c r="C77">
-        <v>0.006333333333333334</v>
+        <v>6.333333333333334E-3</v>
       </c>
       <c r="D77">
-        <v>37.81831275720165</v>
+        <v>37.818312757201653</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1475,10 +3183,10 @@
         <v>1862.15</v>
       </c>
       <c r="C78">
-        <v>0.006416666666666668</v>
+        <v>6.4166666666666677E-3</v>
       </c>
       <c r="D78">
-        <v>38.31584362139917</v>
+        <v>38.315843621399168</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1489,10 +3197,10 @@
         <v>1886.33</v>
       </c>
       <c r="C79">
-        <v>0.006500000000000001</v>
+        <v>6.5000000000000006E-3</v>
       </c>
       <c r="D79">
-        <v>38.8133744855967</v>
+        <v>38.813374485596697</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1503,7 +3211,7 @@
         <v>1910.52</v>
       </c>
       <c r="C80">
-        <v>0.006583333333333333</v>
+        <v>6.5833333333333334E-3</v>
       </c>
       <c r="D80">
         <v>39.31111111111111</v>
@@ -1517,24 +3225,24 @@
         <v>1934.7</v>
       </c>
       <c r="C81">
-        <v>0.006666666666666667</v>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="D81">
-        <v>39.80864197530864</v>
+        <v>39.808641975308639</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="B82">
         <v>1958.89</v>
       </c>
       <c r="C82">
-        <v>0.006750000000000001</v>
+        <v>6.7500000000000008E-3</v>
       </c>
       <c r="D82">
-        <v>40.30637860082305</v>
+        <v>40.306378600823052</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1545,10 +3253,10 @@
         <v>1983.07</v>
       </c>
       <c r="C83">
-        <v>0.006833333333333334</v>
+        <v>6.8333333333333336E-3</v>
       </c>
       <c r="D83">
-        <v>40.80390946502057</v>
+        <v>40.803909465020567</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1559,10 +3267,10 @@
         <v>2007.25</v>
       </c>
       <c r="C84">
-        <v>0.006916666666666667</v>
+        <v>6.9166666666666673E-3</v>
       </c>
       <c r="D84">
-        <v>41.3014403292181</v>
+        <v>41.301440329218103</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1573,10 +3281,10 @@
         <v>2031.44</v>
       </c>
       <c r="C85">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D85">
-        <v>41.79917695473251</v>
+        <v>41.799176954732509</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1587,10 +3295,10 @@
         <v>2055.62</v>
       </c>
       <c r="C86">
-        <v>0.007083333333333333</v>
+        <v>7.083333333333333E-3</v>
       </c>
       <c r="D86">
-        <v>42.29670781893004</v>
+        <v>42.296707818930038</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +3306,13 @@
         <v>0.86</v>
       </c>
       <c r="B87">
-        <v>2079.8</v>
+        <v>2079.8000000000002</v>
       </c>
       <c r="C87">
-        <v>0.007166666666666667</v>
+        <v>7.1666666666666667E-3</v>
       </c>
       <c r="D87">
-        <v>42.79423868312757</v>
+        <v>42.794238683127567</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +3320,13 @@
         <v>0.87</v>
       </c>
       <c r="B88">
-        <v>2103.99</v>
+        <v>2103.9899999999998</v>
       </c>
       <c r="C88">
-        <v>0.00725</v>
+        <v>7.2500000000000004E-3</v>
       </c>
       <c r="D88">
-        <v>43.29197530864197</v>
+        <v>43.291975308641973</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1629,10 +3337,10 @@
         <v>2128.17</v>
       </c>
       <c r="C89">
-        <v>0.007333333333333334</v>
+        <v>7.3333333333333341E-3</v>
       </c>
       <c r="D89">
-        <v>43.78950617283951</v>
+        <v>43.789506172839509</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1643,10 +3351,10 @@
         <v>2152.36</v>
       </c>
       <c r="C90">
-        <v>0.007416666666666668</v>
+        <v>7.4166666666666678E-3</v>
       </c>
       <c r="D90">
-        <v>44.28724279835391</v>
+        <v>44.287242798353908</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1657,10 +3365,10 @@
         <v>2176.54</v>
       </c>
       <c r="C91">
-        <v>0.007500000000000001</v>
+        <v>7.5000000000000006E-3</v>
       </c>
       <c r="D91">
-        <v>44.78477366255144</v>
+        <v>44.784773662551437</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1668,13 +3376,13 @@
         <v>0.91</v>
       </c>
       <c r="B92">
-        <v>2200.72</v>
+        <v>2200.7199999999998</v>
       </c>
       <c r="C92">
-        <v>0.007583333333333333</v>
+        <v>7.5833333333333334E-3</v>
       </c>
       <c r="D92">
-        <v>45.28230452674897</v>
+        <v>45.282304526748973</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1685,10 +3393,10 @@
         <v>2224.91</v>
       </c>
       <c r="C93">
-        <v>0.007666666666666667</v>
+        <v>7.6666666666666671E-3</v>
       </c>
       <c r="D93">
-        <v>45.78004115226337</v>
+        <v>45.780041152263372</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1699,24 +3407,24 @@
         <v>2249.09</v>
       </c>
       <c r="C94">
-        <v>0.007750000000000001</v>
+        <v>7.7500000000000008E-3</v>
       </c>
       <c r="D94">
-        <v>46.27757201646091</v>
+        <v>46.277572016460908</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="B95">
         <v>2273.27</v>
       </c>
       <c r="C95">
-        <v>0.007833333333333333</v>
+        <v>7.8333333333333328E-3</v>
       </c>
       <c r="D95">
-        <v>46.77510288065844</v>
+        <v>46.775102880658437</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1727,10 +3435,10 @@
         <v>2297.46</v>
       </c>
       <c r="C96">
-        <v>0.007916666666666667</v>
+        <v>7.9166666666666673E-3</v>
       </c>
       <c r="D96">
-        <v>47.27283950617284</v>
+        <v>47.272839506172843</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1741,10 +3449,10 @@
         <v>2321.64</v>
       </c>
       <c r="C97">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D97">
-        <v>47.77037037037037</v>
+        <v>47.770370370370372</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1755,10 +3463,10 @@
         <v>2345.83</v>
       </c>
       <c r="C98">
-        <v>0.008083333333333333</v>
+        <v>8.083333333333333E-3</v>
       </c>
       <c r="D98">
-        <v>48.26810699588477</v>
+        <v>48.268106995884771</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1766,13 +3474,13 @@
         <v>0.98</v>
       </c>
       <c r="B99">
-        <v>2370.01</v>
+        <v>2370.0100000000002</v>
       </c>
       <c r="C99">
-        <v>0.008166666666666668</v>
+        <v>8.1666666666666676E-3</v>
       </c>
       <c r="D99">
-        <v>48.76563786008231</v>
+        <v>48.765637860082307</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1783,10 +3491,10 @@
         <v>2394.19</v>
       </c>
       <c r="C100">
-        <v>0.00825</v>
+        <v>8.2500000000000004E-3</v>
       </c>
       <c r="D100">
-        <v>49.26316872427984</v>
+        <v>49.263168724279844</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1797,13 +3505,15 @@
         <v>2418.38</v>
       </c>
       <c r="C101">
-        <v>0.008333333333333333</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="D101">
-        <v>49.76090534979424</v>
+        <v>49.760905349794243</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>